--- a/REGULAR/CCT/PETIL, GLENDA DE VILLA.xlsx
+++ b/REGULAR/CCT/PETIL, GLENDA DE VILLA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="358">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1101,6 +1101,12 @@
   </si>
   <si>
     <t>12/26-29/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>SL(9-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1344,7 +1350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1495,6 +1501,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1528,7 +1537,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1808,7 +1817,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K555" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K607" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2137,12 +2146,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K555"/>
+  <dimension ref="A2:K607"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A541" activePane="bottomLeft"/>
       <selection activeCell="K8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="K555" sqref="K555"/>
+      <selection pane="bottomLeft" activeCell="I556" sqref="I556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2164,62 +2173,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -2245,18 +2254,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2313,7 +2322,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>196.125</v>
+        <v>187.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14796,9 +14805,877 @@
       </c>
       <c r="I555" s="9"/>
       <c r="J555" s="12"/>
-      <c r="K555" s="63">
+      <c r="K555" s="52">
         <v>45264</v>
       </c>
+    </row>
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A556" s="40"/>
+      <c r="B556" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="C556" s="13"/>
+      <c r="D556" s="39"/>
+      <c r="E556" s="9"/>
+      <c r="F556" s="20"/>
+      <c r="G556" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H556" s="39">
+        <v>9</v>
+      </c>
+      <c r="I556" s="9"/>
+      <c r="J556" s="11"/>
+      <c r="K556" s="49"/>
+    </row>
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A557" s="48" t="s">
+        <v>356</v>
+      </c>
+      <c r="B557" s="20"/>
+      <c r="C557" s="13"/>
+      <c r="D557" s="39"/>
+      <c r="E557" s="9"/>
+      <c r="F557" s="20"/>
+      <c r="G557" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H557" s="39"/>
+      <c r="I557" s="9"/>
+      <c r="J557" s="11"/>
+      <c r="K557" s="20"/>
+    </row>
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A558" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B558" s="20"/>
+      <c r="C558" s="13"/>
+      <c r="D558" s="39"/>
+      <c r="E558" s="9"/>
+      <c r="F558" s="20"/>
+      <c r="G558" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H558" s="39"/>
+      <c r="I558" s="9"/>
+      <c r="J558" s="11"/>
+      <c r="K558" s="20"/>
+    </row>
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A559" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B559" s="20"/>
+      <c r="C559" s="13"/>
+      <c r="D559" s="39"/>
+      <c r="E559" s="9"/>
+      <c r="F559" s="20"/>
+      <c r="G559" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H559" s="39"/>
+      <c r="I559" s="9"/>
+      <c r="J559" s="11"/>
+      <c r="K559" s="20"/>
+    </row>
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A560" s="40">
+        <v>45352</v>
+      </c>
+      <c r="B560" s="20"/>
+      <c r="C560" s="13"/>
+      <c r="D560" s="39"/>
+      <c r="E560" s="9"/>
+      <c r="F560" s="20"/>
+      <c r="G560" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H560" s="39"/>
+      <c r="I560" s="9"/>
+      <c r="J560" s="11"/>
+      <c r="K560" s="20"/>
+    </row>
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A561" s="40">
+        <v>45383</v>
+      </c>
+      <c r="B561" s="20"/>
+      <c r="C561" s="13"/>
+      <c r="D561" s="39"/>
+      <c r="E561" s="9"/>
+      <c r="F561" s="20"/>
+      <c r="G561" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H561" s="39"/>
+      <c r="I561" s="9"/>
+      <c r="J561" s="11"/>
+      <c r="K561" s="20"/>
+    </row>
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A562" s="40">
+        <v>45413</v>
+      </c>
+      <c r="B562" s="20"/>
+      <c r="C562" s="13"/>
+      <c r="D562" s="39"/>
+      <c r="E562" s="9"/>
+      <c r="F562" s="20"/>
+      <c r="G562" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H562" s="39"/>
+      <c r="I562" s="9"/>
+      <c r="J562" s="11"/>
+      <c r="K562" s="20"/>
+    </row>
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A563" s="40">
+        <v>45444</v>
+      </c>
+      <c r="B563" s="20"/>
+      <c r="C563" s="13"/>
+      <c r="D563" s="39"/>
+      <c r="E563" s="9"/>
+      <c r="F563" s="20"/>
+      <c r="G563" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H563" s="39"/>
+      <c r="I563" s="9"/>
+      <c r="J563" s="11"/>
+      <c r="K563" s="20"/>
+    </row>
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A564" s="40">
+        <v>45474</v>
+      </c>
+      <c r="B564" s="20"/>
+      <c r="C564" s="13"/>
+      <c r="D564" s="39"/>
+      <c r="E564" s="9"/>
+      <c r="F564" s="20"/>
+      <c r="G564" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H564" s="39"/>
+      <c r="I564" s="9"/>
+      <c r="J564" s="11"/>
+      <c r="K564" s="20"/>
+    </row>
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A565" s="40">
+        <v>45505</v>
+      </c>
+      <c r="B565" s="20"/>
+      <c r="C565" s="13"/>
+      <c r="D565" s="39"/>
+      <c r="E565" s="9"/>
+      <c r="F565" s="20"/>
+      <c r="G565" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H565" s="39"/>
+      <c r="I565" s="9"/>
+      <c r="J565" s="11"/>
+      <c r="K565" s="20"/>
+    </row>
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A566" s="40">
+        <v>45536</v>
+      </c>
+      <c r="B566" s="20"/>
+      <c r="C566" s="13"/>
+      <c r="D566" s="39"/>
+      <c r="E566" s="9"/>
+      <c r="F566" s="20"/>
+      <c r="G566" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H566" s="39"/>
+      <c r="I566" s="9"/>
+      <c r="J566" s="11"/>
+      <c r="K566" s="20"/>
+    </row>
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A567" s="40">
+        <v>45566</v>
+      </c>
+      <c r="B567" s="20"/>
+      <c r="C567" s="13"/>
+      <c r="D567" s="39"/>
+      <c r="E567" s="9"/>
+      <c r="F567" s="20"/>
+      <c r="G567" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H567" s="39"/>
+      <c r="I567" s="9"/>
+      <c r="J567" s="11"/>
+      <c r="K567" s="20"/>
+    </row>
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A568" s="40">
+        <v>45597</v>
+      </c>
+      <c r="B568" s="20"/>
+      <c r="C568" s="13"/>
+      <c r="D568" s="39"/>
+      <c r="E568" s="9"/>
+      <c r="F568" s="20"/>
+      <c r="G568" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H568" s="39"/>
+      <c r="I568" s="9"/>
+      <c r="J568" s="11"/>
+      <c r="K568" s="20"/>
+    </row>
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A569" s="40">
+        <v>45627</v>
+      </c>
+      <c r="B569" s="20"/>
+      <c r="C569" s="13"/>
+      <c r="D569" s="39"/>
+      <c r="E569" s="9"/>
+      <c r="F569" s="20"/>
+      <c r="G569" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H569" s="39"/>
+      <c r="I569" s="9"/>
+      <c r="J569" s="11"/>
+      <c r="K569" s="20"/>
+    </row>
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A570" s="40">
+        <v>45658</v>
+      </c>
+      <c r="B570" s="20"/>
+      <c r="C570" s="13"/>
+      <c r="D570" s="39"/>
+      <c r="E570" s="9"/>
+      <c r="F570" s="20"/>
+      <c r="G570" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H570" s="39"/>
+      <c r="I570" s="9"/>
+      <c r="J570" s="11"/>
+      <c r="K570" s="20"/>
+    </row>
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A571" s="40">
+        <v>45689</v>
+      </c>
+      <c r="B571" s="20"/>
+      <c r="C571" s="13"/>
+      <c r="D571" s="39"/>
+      <c r="E571" s="9"/>
+      <c r="F571" s="20"/>
+      <c r="G571" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H571" s="39"/>
+      <c r="I571" s="9"/>
+      <c r="J571" s="11"/>
+      <c r="K571" s="20"/>
+    </row>
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A572" s="40">
+        <v>45717</v>
+      </c>
+      <c r="B572" s="20"/>
+      <c r="C572" s="13"/>
+      <c r="D572" s="39"/>
+      <c r="E572" s="9"/>
+      <c r="F572" s="20"/>
+      <c r="G572" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H572" s="39"/>
+      <c r="I572" s="9"/>
+      <c r="J572" s="11"/>
+      <c r="K572" s="20"/>
+    </row>
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A573" s="40"/>
+      <c r="B573" s="20"/>
+      <c r="C573" s="13"/>
+      <c r="D573" s="39"/>
+      <c r="E573" s="9"/>
+      <c r="F573" s="20"/>
+      <c r="G573" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H573" s="39"/>
+      <c r="I573" s="9"/>
+      <c r="J573" s="11"/>
+      <c r="K573" s="20"/>
+    </row>
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A574" s="40"/>
+      <c r="B574" s="20"/>
+      <c r="C574" s="13"/>
+      <c r="D574" s="39"/>
+      <c r="E574" s="9"/>
+      <c r="F574" s="20"/>
+      <c r="G574" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H574" s="39"/>
+      <c r="I574" s="9"/>
+      <c r="J574" s="11"/>
+      <c r="K574" s="20"/>
+    </row>
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A575" s="40"/>
+      <c r="B575" s="20"/>
+      <c r="C575" s="13"/>
+      <c r="D575" s="39"/>
+      <c r="E575" s="9"/>
+      <c r="F575" s="20"/>
+      <c r="G575" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H575" s="39"/>
+      <c r="I575" s="9"/>
+      <c r="J575" s="11"/>
+      <c r="K575" s="20"/>
+    </row>
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A576" s="40"/>
+      <c r="B576" s="20"/>
+      <c r="C576" s="13"/>
+      <c r="D576" s="39"/>
+      <c r="E576" s="9"/>
+      <c r="F576" s="20"/>
+      <c r="G576" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H576" s="39"/>
+      <c r="I576" s="9"/>
+      <c r="J576" s="11"/>
+      <c r="K576" s="20"/>
+    </row>
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A577" s="40"/>
+      <c r="B577" s="20"/>
+      <c r="C577" s="13"/>
+      <c r="D577" s="39"/>
+      <c r="E577" s="9"/>
+      <c r="F577" s="20"/>
+      <c r="G577" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H577" s="39"/>
+      <c r="I577" s="9"/>
+      <c r="J577" s="11"/>
+      <c r="K577" s="20"/>
+    </row>
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A578" s="40"/>
+      <c r="B578" s="20"/>
+      <c r="C578" s="13"/>
+      <c r="D578" s="39"/>
+      <c r="E578" s="9"/>
+      <c r="F578" s="20"/>
+      <c r="G578" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H578" s="39"/>
+      <c r="I578" s="9"/>
+      <c r="J578" s="11"/>
+      <c r="K578" s="20"/>
+    </row>
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A579" s="40"/>
+      <c r="B579" s="20"/>
+      <c r="C579" s="13"/>
+      <c r="D579" s="39"/>
+      <c r="E579" s="9"/>
+      <c r="F579" s="20"/>
+      <c r="G579" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H579" s="39"/>
+      <c r="I579" s="9"/>
+      <c r="J579" s="11"/>
+      <c r="K579" s="20"/>
+    </row>
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A580" s="40"/>
+      <c r="B580" s="20"/>
+      <c r="C580" s="13"/>
+      <c r="D580" s="39"/>
+      <c r="E580" s="9"/>
+      <c r="F580" s="20"/>
+      <c r="G580" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H580" s="39"/>
+      <c r="I580" s="9"/>
+      <c r="J580" s="11"/>
+      <c r="K580" s="20"/>
+    </row>
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A581" s="40"/>
+      <c r="B581" s="20"/>
+      <c r="C581" s="13"/>
+      <c r="D581" s="39"/>
+      <c r="E581" s="9"/>
+      <c r="F581" s="20"/>
+      <c r="G581" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H581" s="39"/>
+      <c r="I581" s="9"/>
+      <c r="J581" s="11"/>
+      <c r="K581" s="20"/>
+    </row>
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A582" s="40"/>
+      <c r="B582" s="20"/>
+      <c r="C582" s="13"/>
+      <c r="D582" s="39"/>
+      <c r="E582" s="9"/>
+      <c r="F582" s="20"/>
+      <c r="G582" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H582" s="39"/>
+      <c r="I582" s="9"/>
+      <c r="J582" s="11"/>
+      <c r="K582" s="20"/>
+    </row>
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A583" s="40"/>
+      <c r="B583" s="20"/>
+      <c r="C583" s="13"/>
+      <c r="D583" s="39"/>
+      <c r="E583" s="9"/>
+      <c r="F583" s="20"/>
+      <c r="G583" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H583" s="39"/>
+      <c r="I583" s="9"/>
+      <c r="J583" s="11"/>
+      <c r="K583" s="20"/>
+    </row>
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A584" s="40"/>
+      <c r="B584" s="20"/>
+      <c r="C584" s="13"/>
+      <c r="D584" s="39"/>
+      <c r="E584" s="9"/>
+      <c r="F584" s="20"/>
+      <c r="G584" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H584" s="39"/>
+      <c r="I584" s="9"/>
+      <c r="J584" s="11"/>
+      <c r="K584" s="20"/>
+    </row>
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A585" s="40"/>
+      <c r="B585" s="20"/>
+      <c r="C585" s="13"/>
+      <c r="D585" s="39"/>
+      <c r="E585" s="9"/>
+      <c r="F585" s="20"/>
+      <c r="G585" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H585" s="39"/>
+      <c r="I585" s="9"/>
+      <c r="J585" s="11"/>
+      <c r="K585" s="20"/>
+    </row>
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A586" s="40"/>
+      <c r="B586" s="20"/>
+      <c r="C586" s="13"/>
+      <c r="D586" s="39"/>
+      <c r="E586" s="9"/>
+      <c r="F586" s="20"/>
+      <c r="G586" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H586" s="39"/>
+      <c r="I586" s="9"/>
+      <c r="J586" s="11"/>
+      <c r="K586" s="20"/>
+    </row>
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A587" s="40"/>
+      <c r="B587" s="20"/>
+      <c r="C587" s="13"/>
+      <c r="D587" s="39"/>
+      <c r="E587" s="9"/>
+      <c r="F587" s="20"/>
+      <c r="G587" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H587" s="39"/>
+      <c r="I587" s="9"/>
+      <c r="J587" s="11"/>
+      <c r="K587" s="20"/>
+    </row>
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A588" s="40"/>
+      <c r="B588" s="20"/>
+      <c r="C588" s="13"/>
+      <c r="D588" s="39"/>
+      <c r="E588" s="9"/>
+      <c r="F588" s="20"/>
+      <c r="G588" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H588" s="39"/>
+      <c r="I588" s="9"/>
+      <c r="J588" s="11"/>
+      <c r="K588" s="20"/>
+    </row>
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A589" s="40"/>
+      <c r="B589" s="20"/>
+      <c r="C589" s="13"/>
+      <c r="D589" s="39"/>
+      <c r="E589" s="9"/>
+      <c r="F589" s="20"/>
+      <c r="G589" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H589" s="39"/>
+      <c r="I589" s="9"/>
+      <c r="J589" s="11"/>
+      <c r="K589" s="20"/>
+    </row>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A590" s="40"/>
+      <c r="B590" s="20"/>
+      <c r="C590" s="13"/>
+      <c r="D590" s="39"/>
+      <c r="E590" s="9"/>
+      <c r="F590" s="20"/>
+      <c r="G590" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H590" s="39"/>
+      <c r="I590" s="9"/>
+      <c r="J590" s="11"/>
+      <c r="K590" s="20"/>
+    </row>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A591" s="40"/>
+      <c r="B591" s="20"/>
+      <c r="C591" s="13"/>
+      <c r="D591" s="39"/>
+      <c r="E591" s="9"/>
+      <c r="F591" s="20"/>
+      <c r="G591" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H591" s="39"/>
+      <c r="I591" s="9"/>
+      <c r="J591" s="11"/>
+      <c r="K591" s="20"/>
+    </row>
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A592" s="40"/>
+      <c r="B592" s="20"/>
+      <c r="C592" s="13"/>
+      <c r="D592" s="39"/>
+      <c r="E592" s="9"/>
+      <c r="F592" s="20"/>
+      <c r="G592" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H592" s="39"/>
+      <c r="I592" s="9"/>
+      <c r="J592" s="11"/>
+      <c r="K592" s="20"/>
+    </row>
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A593" s="40"/>
+      <c r="B593" s="20"/>
+      <c r="C593" s="13"/>
+      <c r="D593" s="39"/>
+      <c r="E593" s="9"/>
+      <c r="F593" s="20"/>
+      <c r="G593" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H593" s="39"/>
+      <c r="I593" s="9"/>
+      <c r="J593" s="11"/>
+      <c r="K593" s="20"/>
+    </row>
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A594" s="40"/>
+      <c r="B594" s="20"/>
+      <c r="C594" s="13"/>
+      <c r="D594" s="39"/>
+      <c r="E594" s="9"/>
+      <c r="F594" s="20"/>
+      <c r="G594" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H594" s="39"/>
+      <c r="I594" s="9"/>
+      <c r="J594" s="11"/>
+      <c r="K594" s="20"/>
+    </row>
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A595" s="40"/>
+      <c r="B595" s="20"/>
+      <c r="C595" s="13"/>
+      <c r="D595" s="39"/>
+      <c r="E595" s="9"/>
+      <c r="F595" s="20"/>
+      <c r="G595" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H595" s="39"/>
+      <c r="I595" s="9"/>
+      <c r="J595" s="11"/>
+      <c r="K595" s="20"/>
+    </row>
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A596" s="40"/>
+      <c r="B596" s="20"/>
+      <c r="C596" s="13"/>
+      <c r="D596" s="39"/>
+      <c r="E596" s="9"/>
+      <c r="F596" s="20"/>
+      <c r="G596" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H596" s="39"/>
+      <c r="I596" s="9"/>
+      <c r="J596" s="11"/>
+      <c r="K596" s="20"/>
+    </row>
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A597" s="40"/>
+      <c r="B597" s="20"/>
+      <c r="C597" s="13"/>
+      <c r="D597" s="39"/>
+      <c r="E597" s="9"/>
+      <c r="F597" s="20"/>
+      <c r="G597" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H597" s="39"/>
+      <c r="I597" s="9"/>
+      <c r="J597" s="11"/>
+      <c r="K597" s="20"/>
+    </row>
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A598" s="40"/>
+      <c r="B598" s="20"/>
+      <c r="C598" s="13"/>
+      <c r="D598" s="39"/>
+      <c r="E598" s="9"/>
+      <c r="F598" s="20"/>
+      <c r="G598" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H598" s="39"/>
+      <c r="I598" s="9"/>
+      <c r="J598" s="11"/>
+      <c r="K598" s="20"/>
+    </row>
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A599" s="40"/>
+      <c r="B599" s="20"/>
+      <c r="C599" s="13"/>
+      <c r="D599" s="39"/>
+      <c r="E599" s="9"/>
+      <c r="F599" s="20"/>
+      <c r="G599" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H599" s="39"/>
+      <c r="I599" s="9"/>
+      <c r="J599" s="11"/>
+      <c r="K599" s="20"/>
+    </row>
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A600" s="40"/>
+      <c r="B600" s="20"/>
+      <c r="C600" s="13"/>
+      <c r="D600" s="39"/>
+      <c r="E600" s="9"/>
+      <c r="F600" s="20"/>
+      <c r="G600" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H600" s="39"/>
+      <c r="I600" s="9"/>
+      <c r="J600" s="11"/>
+      <c r="K600" s="20"/>
+    </row>
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A601" s="40"/>
+      <c r="B601" s="20"/>
+      <c r="C601" s="13"/>
+      <c r="D601" s="39"/>
+      <c r="E601" s="9"/>
+      <c r="F601" s="20"/>
+      <c r="G601" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H601" s="39"/>
+      <c r="I601" s="9"/>
+      <c r="J601" s="11"/>
+      <c r="K601" s="20"/>
+    </row>
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A602" s="40"/>
+      <c r="B602" s="20"/>
+      <c r="C602" s="13"/>
+      <c r="D602" s="39"/>
+      <c r="E602" s="9"/>
+      <c r="F602" s="20"/>
+      <c r="G602" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H602" s="39"/>
+      <c r="I602" s="9"/>
+      <c r="J602" s="11"/>
+      <c r="K602" s="20"/>
+    </row>
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A603" s="40"/>
+      <c r="B603" s="20"/>
+      <c r="C603" s="13"/>
+      <c r="D603" s="39"/>
+      <c r="E603" s="9"/>
+      <c r="F603" s="20"/>
+      <c r="G603" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H603" s="39"/>
+      <c r="I603" s="9"/>
+      <c r="J603" s="11"/>
+      <c r="K603" s="20"/>
+    </row>
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A604" s="40"/>
+      <c r="B604" s="20"/>
+      <c r="C604" s="13"/>
+      <c r="D604" s="39"/>
+      <c r="E604" s="9"/>
+      <c r="F604" s="20"/>
+      <c r="G604" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H604" s="39"/>
+      <c r="I604" s="9"/>
+      <c r="J604" s="11"/>
+      <c r="K604" s="20"/>
+    </row>
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A605" s="40"/>
+      <c r="B605" s="20"/>
+      <c r="C605" s="13"/>
+      <c r="D605" s="39"/>
+      <c r="E605" s="9"/>
+      <c r="F605" s="20"/>
+      <c r="G605" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H605" s="39"/>
+      <c r="I605" s="9"/>
+      <c r="J605" s="11"/>
+      <c r="K605" s="20"/>
+    </row>
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A606" s="40"/>
+      <c r="B606" s="20"/>
+      <c r="C606" s="13"/>
+      <c r="D606" s="39"/>
+      <c r="E606" s="9"/>
+      <c r="F606" s="20"/>
+      <c r="G606" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H606" s="39"/>
+      <c r="I606" s="9"/>
+      <c r="J606" s="11"/>
+      <c r="K606" s="20"/>
+    </row>
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A607" s="41"/>
+      <c r="B607" s="15"/>
+      <c r="C607" s="42"/>
+      <c r="D607" s="43"/>
+      <c r="E607" s="64"/>
+      <c r="F607" s="15"/>
+      <c r="G607" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H607" s="43"/>
+      <c r="I607" s="64"/>
+      <c r="J607" s="12"/>
+      <c r="K607" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14844,7 +15721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -14863,17 +15740,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="J1" s="61" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -14955,17 +15832,17 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>357.91699999999997</v>
+        <v>348.91699999999997</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CCT/PETIL, GLENDA DE VILLA.xlsx
+++ b/REGULAR/CCT/PETIL, GLENDA DE VILLA.xlsx
@@ -1100,13 +1100,13 @@
     <t>10/19,20,24/2023</t>
   </si>
   <si>
-    <t>12/26-29/2023</t>
-  </si>
-  <si>
     <t>2024</t>
   </si>
   <si>
     <t>SL(9-0-0)</t>
+  </si>
+  <si>
+    <t>12/27-29/2023</t>
   </si>
 </sst>
 </file>
@@ -1504,6 +1504,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1536,9 +1539,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2151,7 +2151,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A541" activePane="bottomLeft"/>
       <selection activeCell="K8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="I556" sqref="I556"/>
+      <selection pane="bottomLeft" activeCell="F558" sqref="F558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2173,62 +2173,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -2254,18 +2254,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2312,7 +2312,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>161.79199999999997</v>
+        <v>162.79199999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -14768,11 +14768,11 @@
         <v>45261</v>
       </c>
       <c r="B554" s="20" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="C554" s="13"/>
       <c r="D554" s="39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E554" s="9"/>
       <c r="F554" s="20"/>
@@ -14784,7 +14784,7 @@
       <c r="I554" s="9"/>
       <c r="J554" s="11"/>
       <c r="K554" s="20" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
@@ -14812,7 +14812,7 @@
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C556" s="13"/>
       <c r="D556" s="39"/>
@@ -14831,7 +14831,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="48" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -15666,14 +15666,14 @@
       <c r="B607" s="15"/>
       <c r="C607" s="42"/>
       <c r="D607" s="43"/>
-      <c r="E607" s="64"/>
+      <c r="E607" s="53"/>
       <c r="F607" s="15"/>
       <c r="G607" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H607" s="43"/>
-      <c r="I607" s="64"/>
+      <c r="I607" s="53"/>
       <c r="J607" s="12"/>
       <c r="K607" s="15"/>
     </row>
@@ -15740,17 +15740,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="J1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -15832,17 +15832,17 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>348.91699999999997</v>
+        <v>349.91699999999997</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CCT/PETIL, GLENDA DE VILLA.xlsx
+++ b/REGULAR/CCT/PETIL, GLENDA DE VILLA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="368">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1107,6 +1107,36 @@
   </si>
   <si>
     <t>12/27-29/2023</t>
+  </si>
+  <si>
+    <t>A(2-0-0)</t>
+  </si>
+  <si>
+    <t>11/10,13/2023</t>
+  </si>
+  <si>
+    <t>UT(0-2-0)</t>
+  </si>
+  <si>
+    <t>UT(0-5-25)</t>
+  </si>
+  <si>
+    <t>UT(0-0-2)</t>
+  </si>
+  <si>
+    <t>UT(0-1-21)</t>
+  </si>
+  <si>
+    <t>3/9,13/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-27)</t>
+  </si>
+  <si>
+    <t>1/17,18/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-4)</t>
   </si>
 </sst>
 </file>
@@ -1817,7 +1847,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K607" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K617" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2146,12 +2176,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K607"/>
+  <dimension ref="A2:K617"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A541" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A526" activePane="bottomLeft"/>
       <selection activeCell="K8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="F558" sqref="F558"/>
+      <selection pane="bottomLeft" activeCell="F542" sqref="F542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2312,7 +2342,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>162.79199999999997</v>
+        <v>154.39099999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -14357,88 +14387,83 @@
       </c>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A537" s="40">
+      <c r="A537" s="40"/>
+      <c r="B537" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="C537" s="13"/>
+      <c r="D537" s="39">
+        <v>2</v>
+      </c>
+      <c r="E537" s="9"/>
+      <c r="F537" s="20"/>
+      <c r="G537" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H537" s="39"/>
+      <c r="I537" s="9"/>
+      <c r="J537" s="11"/>
+      <c r="K537" s="20" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A538" s="40"/>
+      <c r="B538" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="C538" s="13"/>
+      <c r="D538" s="39">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E538" s="9"/>
+      <c r="F538" s="20"/>
+      <c r="G538" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H538" s="39"/>
+      <c r="I538" s="9"/>
+      <c r="J538" s="11"/>
+      <c r="K538" s="20"/>
+    </row>
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A539" s="40">
         <f>EDATE(A536,1)</f>
         <v>44958</v>
       </c>
-      <c r="B537" s="20" t="s">
+      <c r="B539" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C537" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D537" s="39"/>
-      <c r="E537" s="9"/>
-      <c r="F537" s="20"/>
-      <c r="G537" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H537" s="39">
-        <v>21</v>
-      </c>
-      <c r="I537" s="9"/>
-      <c r="J537" s="11"/>
-      <c r="K537" s="50" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A538" s="40">
-        <f t="shared" ref="A538:A554" si="6">EDATE(A537,1)</f>
-        <v>44986</v>
-      </c>
-      <c r="B538" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C538" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D538" s="39"/>
-      <c r="E538" s="9"/>
-      <c r="F538" s="20"/>
-      <c r="G538" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H538" s="39">
-        <v>1</v>
-      </c>
-      <c r="I538" s="9"/>
-      <c r="J538" s="11"/>
-      <c r="K538" s="49">
-        <v>45015</v>
-      </c>
-    </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A539" s="40"/>
-      <c r="B539" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C539" s="13"/>
+      <c r="C539" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D539" s="39"/>
       <c r="E539" s="9"/>
       <c r="F539" s="20"/>
-      <c r="G539" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G539" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H539" s="39">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="I539" s="9"/>
       <c r="J539" s="11"/>
-      <c r="K539" s="49" t="s">
-        <v>94</v>
+      <c r="K539" s="50" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
-        <v>47</v>
+        <v>365</v>
       </c>
       <c r="C540" s="13"/>
-      <c r="D540" s="39"/>
+      <c r="D540" s="39">
+        <v>5.6000000000000015E-2</v>
+      </c>
       <c r="E540" s="9"/>
       <c r="F540" s="20"/>
       <c r="G540" s="13" t="str">
@@ -14448,16 +14473,16 @@
       <c r="H540" s="39"/>
       <c r="I540" s="9"/>
       <c r="J540" s="11"/>
-      <c r="K540" s="49">
-        <v>45009</v>
-      </c>
+      <c r="K540" s="50"/>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <f>EDATE(A538,1)</f>
-        <v>45017</v>
-      </c>
-      <c r="B541" s="20"/>
+        <f>EDATE(A539,1)</f>
+        <v>44986</v>
+      </c>
+      <c r="B541" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C541" s="13">
         <v>1.25</v>
       </c>
@@ -14468,47 +14493,44 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H541" s="39"/>
+      <c r="H541" s="39">
+        <v>1</v>
+      </c>
       <c r="I541" s="9"/>
       <c r="J541" s="11"/>
-      <c r="K541" s="20"/>
+      <c r="K541" s="49">
+        <v>45015</v>
+      </c>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A542" s="40">
-        <f t="shared" ref="A542" si="7">EDATE(A541,1)</f>
-        <v>45047</v>
-      </c>
+      <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C542" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D542" s="39">
-        <v>2</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C542" s="13"/>
+      <c r="D542" s="39"/>
       <c r="E542" s="9"/>
       <c r="F542" s="20"/>
-      <c r="G542" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H542" s="39"/>
+      <c r="G542" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H542" s="39">
+        <v>2</v>
+      </c>
       <c r="I542" s="9"/>
       <c r="J542" s="11"/>
-      <c r="K542" s="20" t="s">
-        <v>345</v>
+      <c r="K542" s="49" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C543" s="13"/>
-      <c r="D543" s="39">
-        <v>5</v>
-      </c>
+      <c r="D543" s="39"/>
       <c r="E543" s="9"/>
       <c r="F543" s="20"/>
       <c r="G543" s="13" t="str">
@@ -14518,235 +14540,223 @@
       <c r="H543" s="39"/>
       <c r="I543" s="9"/>
       <c r="J543" s="11"/>
-      <c r="K543" s="20" t="s">
-        <v>347</v>
+      <c r="K543" s="49">
+        <v>45009</v>
       </c>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
-        <v>70</v>
+        <v>358</v>
       </c>
       <c r="C544" s="13"/>
-      <c r="D544" s="39"/>
+      <c r="D544" s="39">
+        <v>2</v>
+      </c>
       <c r="E544" s="9"/>
       <c r="F544" s="20"/>
       <c r="G544" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H544" s="39">
-        <v>3</v>
-      </c>
+      <c r="H544" s="39"/>
       <c r="I544" s="9"/>
       <c r="J544" s="11"/>
       <c r="K544" s="49" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A545" s="40">
-        <f>EDATE(A542,1)</f>
-        <v>45078</v>
-      </c>
+      <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C545" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D545" s="39"/>
+        <v>150</v>
+      </c>
+      <c r="C545" s="13"/>
+      <c r="D545" s="39">
+        <v>0.20200000000000001</v>
+      </c>
       <c r="E545" s="9"/>
       <c r="F545" s="20"/>
-      <c r="G545" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G545" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H545" s="39"/>
       <c r="I545" s="9"/>
       <c r="J545" s="11"/>
-      <c r="K545" s="49">
-        <v>45111</v>
-      </c>
+      <c r="K545" s="49"/>
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
-        <f t="shared" si="6"/>
-        <v>45108</v>
+        <f>EDATE(A541,1)</f>
+        <v>45017</v>
       </c>
       <c r="B546" s="20" t="s">
-        <v>48</v>
+        <v>363</v>
       </c>
       <c r="C546" s="13">
         <v>1.25</v>
       </c>
-      <c r="D546" s="39"/>
+      <c r="D546" s="39">
+        <v>0.16900000000000001</v>
+      </c>
       <c r="E546" s="9"/>
       <c r="F546" s="20"/>
       <c r="G546" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H546" s="39">
-        <v>1</v>
-      </c>
+      <c r="H546" s="39"/>
       <c r="I546" s="9"/>
       <c r="J546" s="11"/>
-      <c r="K546" s="49">
-        <v>45119</v>
-      </c>
+      <c r="K546" s="20"/>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A547" s="40"/>
+      <c r="A547" s="40">
+        <f t="shared" ref="A547" si="6">EDATE(A546,1)</f>
+        <v>45047</v>
+      </c>
       <c r="B547" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C547" s="13"/>
-      <c r="D547" s="39"/>
+        <v>57</v>
+      </c>
+      <c r="C547" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D547" s="39">
+        <v>2</v>
+      </c>
       <c r="E547" s="9"/>
       <c r="F547" s="20"/>
-      <c r="G547" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G547" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H547" s="39"/>
       <c r="I547" s="9"/>
       <c r="J547" s="11"/>
-      <c r="K547" s="49">
-        <v>45117</v>
+      <c r="K547" s="20" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A548" s="40">
-        <f>EDATE(A546,1)</f>
-        <v>45139</v>
-      </c>
+      <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C548" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D548" s="39"/>
+        <v>50</v>
+      </c>
+      <c r="C548" s="13"/>
+      <c r="D548" s="39">
+        <v>5</v>
+      </c>
       <c r="E548" s="9"/>
       <c r="F548" s="20"/>
-      <c r="G548" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H548" s="39">
-        <v>1</v>
-      </c>
+      <c r="G548" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H548" s="39"/>
       <c r="I548" s="9"/>
       <c r="J548" s="11"/>
-      <c r="K548" s="49">
-        <v>45167</v>
+      <c r="K548" s="20" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A549" s="40">
-        <f t="shared" si="6"/>
-        <v>45170</v>
-      </c>
+      <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C549" s="13">
-        <v>1.25</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C549" s="13"/>
       <c r="D549" s="39"/>
       <c r="E549" s="9"/>
       <c r="F549" s="20"/>
-      <c r="G549" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G549" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H549" s="39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I549" s="9"/>
       <c r="J549" s="11"/>
-      <c r="K549" s="20" t="s">
-        <v>352</v>
+      <c r="K549" s="49" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A550" s="40"/>
+      <c r="A550" s="40">
+        <f>EDATE(A547,1)</f>
+        <v>45078</v>
+      </c>
       <c r="B550" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C550" s="13"/>
+        <v>47</v>
+      </c>
+      <c r="C550" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D550" s="39"/>
       <c r="E550" s="9"/>
       <c r="F550" s="20"/>
-      <c r="G550" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H550" s="39">
-        <v>1</v>
-      </c>
+      <c r="G550" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H550" s="39"/>
       <c r="I550" s="9"/>
       <c r="J550" s="11"/>
       <c r="K550" s="49">
-        <v>45195</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A551" s="40">
-        <f>EDATE(A549,1)</f>
-        <v>45200</v>
-      </c>
+      <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C551" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D551" s="39"/>
+        <v>351</v>
+      </c>
+      <c r="C551" s="13"/>
+      <c r="D551" s="39">
+        <v>1</v>
+      </c>
       <c r="E551" s="9"/>
       <c r="F551" s="20"/>
-      <c r="G551" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H551" s="39">
-        <v>3</v>
-      </c>
+      <c r="G551" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H551" s="39"/>
       <c r="I551" s="9"/>
       <c r="J551" s="11"/>
-      <c r="K551" s="20" t="s">
-        <v>353</v>
+      <c r="K551" s="49">
+        <v>45100</v>
       </c>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
-        <v>70</v>
+        <v>362</v>
       </c>
       <c r="C552" s="13"/>
-      <c r="D552" s="39"/>
+      <c r="D552" s="39">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="E552" s="9"/>
       <c r="F552" s="20"/>
       <c r="G552" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H552" s="39">
-        <v>3</v>
-      </c>
+      <c r="H552" s="39"/>
       <c r="I552" s="9"/>
       <c r="J552" s="11"/>
-      <c r="K552" s="20" t="s">
-        <v>354</v>
-      </c>
+      <c r="K552" s="49"/>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <f>EDATE(A551,1)</f>
-        <v>45231</v>
-      </c>
-      <c r="B553" s="20"/>
+        <f>EDATE(A550,1)</f>
+        <v>45108</v>
+      </c>
+      <c r="B553" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C553" s="13">
         <v>1.25</v>
       </c>
@@ -14757,23 +14767,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H553" s="39"/>
+      <c r="H553" s="39">
+        <v>1</v>
+      </c>
       <c r="I553" s="9"/>
       <c r="J553" s="11"/>
-      <c r="K553" s="20"/>
+      <c r="K553" s="49">
+        <v>45119</v>
+      </c>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A554" s="40">
-        <f t="shared" si="6"/>
-        <v>45261</v>
-      </c>
+      <c r="A554" s="40"/>
       <c r="B554" s="20" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="C554" s="13"/>
-      <c r="D554" s="39">
-        <v>3</v>
-      </c>
+      <c r="D554" s="39"/>
       <c r="E554" s="9"/>
       <c r="F554" s="20"/>
       <c r="G554" s="13" t="str">
@@ -14783,57 +14792,69 @@
       <c r="H554" s="39"/>
       <c r="I554" s="9"/>
       <c r="J554" s="11"/>
-      <c r="K554" s="20" t="s">
-        <v>357</v>
+      <c r="K554" s="49">
+        <v>45117</v>
       </c>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A555" s="41"/>
-      <c r="B555" s="15" t="s">
+      <c r="A555" s="40">
+        <f>EDATE(A553,1)</f>
+        <v>45139</v>
+      </c>
+      <c r="B555" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C555" s="42"/>
-      <c r="D555" s="43"/>
+      <c r="C555" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D555" s="39"/>
       <c r="E555" s="9"/>
-      <c r="F555" s="15"/>
-      <c r="G555" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H555" s="43">
+      <c r="F555" s="20"/>
+      <c r="G555" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H555" s="39">
         <v>1</v>
       </c>
       <c r="I555" s="9"/>
-      <c r="J555" s="12"/>
-      <c r="K555" s="52">
-        <v>45264</v>
+      <c r="J555" s="11"/>
+      <c r="K555" s="49">
+        <v>45167</v>
       </c>
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A556" s="40"/>
+      <c r="A556" s="40">
+        <f t="shared" ref="A556" si="7">EDATE(A555,1)</f>
+        <v>45170</v>
+      </c>
       <c r="B556" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="C556" s="13"/>
+        <v>45</v>
+      </c>
+      <c r="C556" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D556" s="39"/>
       <c r="E556" s="9"/>
       <c r="F556" s="20"/>
-      <c r="G556" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G556" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H556" s="39">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I556" s="9"/>
       <c r="J556" s="11"/>
-      <c r="K556" s="49"/>
+      <c r="K556" s="20" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A557" s="48" t="s">
-        <v>355</v>
-      </c>
-      <c r="B557" s="20"/>
+      <c r="A557" s="40"/>
+      <c r="B557" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C557" s="13"/>
       <c r="D557" s="39"/>
       <c r="E557" s="9"/>
@@ -14842,18 +14863,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H557" s="39"/>
+      <c r="H557" s="39">
+        <v>1</v>
+      </c>
       <c r="I557" s="9"/>
       <c r="J557" s="11"/>
-      <c r="K557" s="20"/>
+      <c r="K557" s="49">
+        <v>45195</v>
+      </c>
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A558" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B558" s="20"/>
+      <c r="A558" s="40"/>
+      <c r="B558" s="20" t="s">
+        <v>361</v>
+      </c>
       <c r="C558" s="13"/>
-      <c r="D558" s="39"/>
+      <c r="D558" s="39">
+        <v>0.67700000000000005</v>
+      </c>
       <c r="E558" s="9"/>
       <c r="F558" s="20"/>
       <c r="G558" s="13" t="str">
@@ -14863,31 +14890,40 @@
       <c r="H558" s="39"/>
       <c r="I558" s="9"/>
       <c r="J558" s="11"/>
-      <c r="K558" s="20"/>
+      <c r="K558" s="49"/>
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B559" s="20"/>
-      <c r="C559" s="13"/>
+        <f>EDATE(A556,1)</f>
+        <v>45200</v>
+      </c>
+      <c r="B559" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C559" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D559" s="39"/>
       <c r="E559" s="9"/>
       <c r="F559" s="20"/>
-      <c r="G559" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H559" s="39"/>
+      <c r="G559" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H559" s="39">
+        <v>3</v>
+      </c>
       <c r="I559" s="9"/>
       <c r="J559" s="11"/>
-      <c r="K559" s="20"/>
+      <c r="K559" s="20" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A560" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B560" s="20"/>
+      <c r="A560" s="40"/>
+      <c r="B560" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C560" s="13"/>
       <c r="D560" s="39"/>
       <c r="E560" s="9"/>
@@ -14896,18 +14932,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H560" s="39"/>
+      <c r="H560" s="39">
+        <v>3</v>
+      </c>
       <c r="I560" s="9"/>
       <c r="J560" s="11"/>
-      <c r="K560" s="20"/>
+      <c r="K560" s="20" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A561" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B561" s="20"/>
+      <c r="A561" s="40"/>
+      <c r="B561" s="20" t="s">
+        <v>360</v>
+      </c>
       <c r="C561" s="13"/>
-      <c r="D561" s="39"/>
+      <c r="D561" s="39">
+        <v>0.25</v>
+      </c>
       <c r="E561" s="9"/>
       <c r="F561" s="20"/>
       <c r="G561" s="13" t="str">
@@ -14921,29 +14963,40 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B562" s="20"/>
-      <c r="C562" s="13"/>
-      <c r="D562" s="39"/>
+        <f>EDATE(A559,1)</f>
+        <v>45231</v>
+      </c>
+      <c r="B562" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="C562" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D562" s="39">
+        <v>2</v>
+      </c>
       <c r="E562" s="9"/>
       <c r="F562" s="20"/>
-      <c r="G562" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G562" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H562" s="39"/>
       <c r="I562" s="9"/>
       <c r="J562" s="11"/>
-      <c r="K562" s="20"/>
+      <c r="K562" s="20" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A563" s="40">
-        <v>45444</v>
-      </c>
-      <c r="B563" s="20"/>
+      <c r="A563" s="40"/>
+      <c r="B563" s="20" t="s">
+        <v>220</v>
+      </c>
       <c r="C563" s="13"/>
-      <c r="D563" s="39"/>
+      <c r="D563" s="39">
+        <v>3.5000000000000017E-2</v>
+      </c>
       <c r="E563" s="9"/>
       <c r="F563" s="20"/>
       <c r="G563" s="13" t="str">
@@ -14957,11 +15010,16 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>45474</v>
-      </c>
-      <c r="B564" s="20"/>
+        <f>EDATE(A562,1)</f>
+        <v>45261</v>
+      </c>
+      <c r="B564" s="20" t="s">
+        <v>106</v>
+      </c>
       <c r="C564" s="13"/>
-      <c r="D564" s="39"/>
+      <c r="D564" s="39">
+        <v>3</v>
+      </c>
       <c r="E564" s="9"/>
       <c r="F564" s="20"/>
       <c r="G564" s="13" t="str">
@@ -14971,31 +15029,37 @@
       <c r="H564" s="39"/>
       <c r="I564" s="9"/>
       <c r="J564" s="11"/>
-      <c r="K564" s="20"/>
+      <c r="K564" s="20" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A565" s="40">
-        <v>45505</v>
-      </c>
-      <c r="B565" s="20"/>
-      <c r="C565" s="13"/>
-      <c r="D565" s="39"/>
+      <c r="A565" s="41"/>
+      <c r="B565" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C565" s="42"/>
+      <c r="D565" s="43"/>
       <c r="E565" s="9"/>
-      <c r="F565" s="20"/>
-      <c r="G565" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H565" s="39"/>
+      <c r="F565" s="15"/>
+      <c r="G565" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H565" s="43">
+        <v>1</v>
+      </c>
       <c r="I565" s="9"/>
-      <c r="J565" s="11"/>
-      <c r="K565" s="20"/>
+      <c r="J565" s="12"/>
+      <c r="K565" s="52">
+        <v>45264</v>
+      </c>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A566" s="40">
-        <v>45536</v>
-      </c>
-      <c r="B566" s="20"/>
+      <c r="A566" s="40"/>
+      <c r="B566" s="20" t="s">
+        <v>356</v>
+      </c>
       <c r="C566" s="13"/>
       <c r="D566" s="39"/>
       <c r="E566" s="9"/>
@@ -15004,14 +15068,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H566" s="39"/>
+      <c r="H566" s="39">
+        <v>9</v>
+      </c>
       <c r="I566" s="9"/>
       <c r="J566" s="11"/>
-      <c r="K566" s="20"/>
+      <c r="K566" s="49"/>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A567" s="40">
-        <v>45566</v>
+      <c r="A567" s="48" t="s">
+        <v>355</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -15029,7 +15095,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
-        <v>45597</v>
+        <v>45292</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -15047,7 +15113,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
-        <v>45627</v>
+        <v>45323</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -15065,7 +15131,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>45658</v>
+        <v>45352</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -15083,7 +15149,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>45689</v>
+        <v>45383</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -15101,7 +15167,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>45717</v>
+        <v>45413</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -15118,7 +15184,9 @@
       <c r="K572" s="20"/>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A573" s="40"/>
+      <c r="A573" s="40">
+        <v>45444</v>
+      </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
       <c r="D573" s="39"/>
@@ -15134,7 +15202,9 @@
       <c r="K573" s="20"/>
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A574" s="40"/>
+      <c r="A574" s="40">
+        <v>45474</v>
+      </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
       <c r="D574" s="39"/>
@@ -15150,7 +15220,9 @@
       <c r="K574" s="20"/>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A575" s="40"/>
+      <c r="A575" s="40">
+        <v>45505</v>
+      </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
       <c r="D575" s="39"/>
@@ -15166,7 +15238,9 @@
       <c r="K575" s="20"/>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A576" s="40"/>
+      <c r="A576" s="40">
+        <v>45536</v>
+      </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
       <c r="D576" s="39"/>
@@ -15182,7 +15256,9 @@
       <c r="K576" s="20"/>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A577" s="40"/>
+      <c r="A577" s="40">
+        <v>45566</v>
+      </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
       <c r="D577" s="39"/>
@@ -15198,7 +15274,9 @@
       <c r="K577" s="20"/>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A578" s="40"/>
+      <c r="A578" s="40">
+        <v>45597</v>
+      </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
       <c r="D578" s="39"/>
@@ -15214,7 +15292,9 @@
       <c r="K578" s="20"/>
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A579" s="40"/>
+      <c r="A579" s="40">
+        <v>45627</v>
+      </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
       <c r="D579" s="39"/>
@@ -15230,7 +15310,9 @@
       <c r="K579" s="20"/>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A580" s="40"/>
+      <c r="A580" s="40">
+        <v>45658</v>
+      </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
       <c r="D580" s="39"/>
@@ -15246,7 +15328,9 @@
       <c r="K580" s="20"/>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A581" s="40"/>
+      <c r="A581" s="40">
+        <v>45689</v>
+      </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
       <c r="D581" s="39"/>
@@ -15262,7 +15346,9 @@
       <c r="K581" s="20"/>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A582" s="40"/>
+      <c r="A582" s="40">
+        <v>45717</v>
+      </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
       <c r="D582" s="39"/>
@@ -15662,20 +15748,180 @@
       <c r="K606" s="20"/>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A607" s="41"/>
-      <c r="B607" s="15"/>
-      <c r="C607" s="42"/>
-      <c r="D607" s="43"/>
-      <c r="E607" s="53"/>
-      <c r="F607" s="15"/>
-      <c r="G607" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H607" s="43"/>
-      <c r="I607" s="53"/>
-      <c r="J607" s="12"/>
-      <c r="K607" s="15"/>
+      <c r="A607" s="40"/>
+      <c r="B607" s="20"/>
+      <c r="C607" s="13"/>
+      <c r="D607" s="39"/>
+      <c r="E607" s="9"/>
+      <c r="F607" s="20"/>
+      <c r="G607" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H607" s="39"/>
+      <c r="I607" s="9"/>
+      <c r="J607" s="11"/>
+      <c r="K607" s="20"/>
+    </row>
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A608" s="40"/>
+      <c r="B608" s="20"/>
+      <c r="C608" s="13"/>
+      <c r="D608" s="39"/>
+      <c r="E608" s="9"/>
+      <c r="F608" s="20"/>
+      <c r="G608" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H608" s="39"/>
+      <c r="I608" s="9"/>
+      <c r="J608" s="11"/>
+      <c r="K608" s="20"/>
+    </row>
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A609" s="40"/>
+      <c r="B609" s="20"/>
+      <c r="C609" s="13"/>
+      <c r="D609" s="39"/>
+      <c r="E609" s="9"/>
+      <c r="F609" s="20"/>
+      <c r="G609" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H609" s="39"/>
+      <c r="I609" s="9"/>
+      <c r="J609" s="11"/>
+      <c r="K609" s="20"/>
+    </row>
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A610" s="40"/>
+      <c r="B610" s="20"/>
+      <c r="C610" s="13"/>
+      <c r="D610" s="39"/>
+      <c r="E610" s="9"/>
+      <c r="F610" s="20"/>
+      <c r="G610" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H610" s="39"/>
+      <c r="I610" s="9"/>
+      <c r="J610" s="11"/>
+      <c r="K610" s="20"/>
+    </row>
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A611" s="40"/>
+      <c r="B611" s="20"/>
+      <c r="C611" s="13"/>
+      <c r="D611" s="39"/>
+      <c r="E611" s="9"/>
+      <c r="F611" s="20"/>
+      <c r="G611" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H611" s="39"/>
+      <c r="I611" s="9"/>
+      <c r="J611" s="11"/>
+      <c r="K611" s="20"/>
+    </row>
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A612" s="40"/>
+      <c r="B612" s="20"/>
+      <c r="C612" s="13"/>
+      <c r="D612" s="39"/>
+      <c r="E612" s="9"/>
+      <c r="F612" s="20"/>
+      <c r="G612" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H612" s="39"/>
+      <c r="I612" s="9"/>
+      <c r="J612" s="11"/>
+      <c r="K612" s="20"/>
+    </row>
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A613" s="40"/>
+      <c r="B613" s="20"/>
+      <c r="C613" s="13"/>
+      <c r="D613" s="39"/>
+      <c r="E613" s="9"/>
+      <c r="F613" s="20"/>
+      <c r="G613" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H613" s="39"/>
+      <c r="I613" s="9"/>
+      <c r="J613" s="11"/>
+      <c r="K613" s="20"/>
+    </row>
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A614" s="40"/>
+      <c r="B614" s="20"/>
+      <c r="C614" s="13"/>
+      <c r="D614" s="39"/>
+      <c r="E614" s="9"/>
+      <c r="F614" s="20"/>
+      <c r="G614" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H614" s="39"/>
+      <c r="I614" s="9"/>
+      <c r="J614" s="11"/>
+      <c r="K614" s="20"/>
+    </row>
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A615" s="40"/>
+      <c r="B615" s="20"/>
+      <c r="C615" s="13"/>
+      <c r="D615" s="39"/>
+      <c r="E615" s="9"/>
+      <c r="F615" s="20"/>
+      <c r="G615" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H615" s="39"/>
+      <c r="I615" s="9"/>
+      <c r="J615" s="11"/>
+      <c r="K615" s="20"/>
+    </row>
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A616" s="40"/>
+      <c r="B616" s="20"/>
+      <c r="C616" s="13"/>
+      <c r="D616" s="39"/>
+      <c r="E616" s="9"/>
+      <c r="F616" s="20"/>
+      <c r="G616" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H616" s="39"/>
+      <c r="I616" s="9"/>
+      <c r="J616" s="11"/>
+      <c r="K616" s="20"/>
+    </row>
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A617" s="41"/>
+      <c r="B617" s="15"/>
+      <c r="C617" s="42"/>
+      <c r="D617" s="43"/>
+      <c r="E617" s="53"/>
+      <c r="F617" s="15"/>
+      <c r="G617" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H617" s="43"/>
+      <c r="I617" s="53"/>
+      <c r="J617" s="12"/>
+      <c r="K617" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15722,7 +15968,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15785,15 +16031,13 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>2.9000000000000012E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -15842,7 +16086,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>349.91699999999997</v>
+        <v>341.51599999999996</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
